--- a/medicine/Hématologie/Déficit_en_protéine_S/Déficit_en_protéine_S.xlsx
+++ b/medicine/Hématologie/Déficit_en_protéine_S/Déficit_en_protéine_S.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9ficit_en_prot%C3%A9ine_S</t>
+          <t>Déficit_en_protéine_S</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le déficit en protéine S (protéine anti-coagulante) est une maladie génétique rare source de thrombophilie (risque de thromboses). Le risque thrombotique est surtout veineux (maladie thromboembolique).
 Le déficit peut être soit quantitatif soit qualitatif. La forme homozygote est létale ; la forme hétérozygote donne lieu à des thromboses récidivantes dans la moitié des cas.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9ficit_en_prot%C3%A9ine_S</t>
+          <t>Déficit_en_protéine_S</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,9 +526,11 @@
           <t>Épidémiologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La prévalence est de l'ordre de 0.3 %, soit moindre que celle du déficit en protéine C[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La prévalence est de l'ordre de 0.3 %, soit moindre que celle du déficit en protéine C.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>D%C3%A9ficit_en_prot%C3%A9ine_S</t>
+          <t>Déficit_en_protéine_S</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,9 +559,11 @@
           <t>Manifestations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'incidence annuelle de maladie thromboembolique est un peu inférieure à 2 %, comparable à celle des patients porteurs d'un déficit en protéine C ou antithrombine III et plus de deux fois supérieure aux patients porteurs d'une thrombophilie par mutation du facteur V ou par Thrombophilie par mutation G20210A du gène de la prothrombine[2]. Une autre étude semble cependant montrer que le risque est beaucoup plus faible[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'incidence annuelle de maladie thromboembolique est un peu inférieure à 2 %, comparable à celle des patients porteurs d'un déficit en protéine C ou antithrombine III et plus de deux fois supérieure aux patients porteurs d'une thrombophilie par mutation du facteur V ou par Thrombophilie par mutation G20210A du gène de la prothrombine. Une autre étude semble cependant montrer que le risque est beaucoup plus faible.
 </t>
         </is>
       </c>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>D%C3%A9ficit_en_prot%C3%A9ine_S</t>
+          <t>Déficit_en_protéine_S</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,9 +592,11 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il doit être fait à distance d'un traitement par antivitamines K qui abaisse sa concentration sanguine. Des taux bas peuvent être également retrouvés en cas de maladie hépatique, de coagulation intravasculaire disséminée, d'une grossesse ou d'un traitement par œstrogènes[1]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il doit être fait à distance d'un traitement par antivitamines K qui abaisse sa concentration sanguine. Des taux bas peuvent être également retrouvés en cas de maladie hépatique, de coagulation intravasculaire disséminée, d'une grossesse ou d'un traitement par œstrogènes. 
 </t>
         </is>
       </c>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>D%C3%A9ficit_en_prot%C3%A9ine_S</t>
+          <t>Déficit_en_protéine_S</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,7 +625,9 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est recommandé de ne pas rester immobile durant une période prolongée, d’effectuer de l’exercice physique, de boire de l’eau et de s’abstenir de l’usage de drogues ou autres facteurs pouvant influencer la texture sanguine afin de prévenir la création de caillots sanguins cependant, il n’y a pas de traitement pouvant guérir cette irrégularité sanguine.
 Le traitement est surtout préventif : il faut envisager un traitement anticoagulant, déconseiller la contraception orale.
